--- a/DeepLearningPolycubing/Results/Results - Unet.xlsx
+++ b/DeepLearningPolycubing/Results/Results - Unet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcleres/DeepShape/DeepLearningPolycubing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEB95AD-9479-254C-A576-1916F3CDF4E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CD94D-BFE7-3045-B6BA-5B2A8ADE4388}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37760" yWindow="200" windowWidth="28040" windowHeight="17060" activeTab="2" xr2:uid="{EBA3C40F-43B5-8A44-86E5-05149CB0A759}"/>
+    <workbookView xWindow="37520" yWindow="-920" windowWidth="28040" windowHeight="17060" xr2:uid="{EBA3C40F-43B5-8A44-86E5-05149CB0A759}"/>
   </bookViews>
   <sheets>
     <sheet name="Leaky Relu - Activation" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
   <si>
     <t>Validation</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Training - Softmax - 8F</t>
+  </si>
+  <si>
+    <t>Log-Softmax</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="44">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -8360,7 +8411,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Leaky Relu - Activation'!$A$22</c:f>
+              <c:f>'Leaky Relu - Activation'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8438,7 +8489,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Leaky Relu - Activation'!$B$21:$I$21</c:f>
+              <c:f>'Leaky Relu - Activation'!$B$25:$I$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8470,7 +8521,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Leaky Relu - Activation'!$B$22:$I$22</c:f>
+              <c:f>'Leaky Relu - Activation'!$B$26:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8500,7 +8551,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Leaky Relu - Activation'!$A$23</c:f>
+              <c:f>'Leaky Relu - Activation'!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8578,7 +8629,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Leaky Relu - Activation'!$B$21:$I$21</c:f>
+              <c:f>'Leaky Relu - Activation'!$B$25:$I$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8610,7 +8661,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Leaky Relu - Activation'!$B$23:$I$23</c:f>
+              <c:f>'Leaky Relu - Activation'!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8652,7 +8703,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Leaky Relu - Activation'!$A$24</c:f>
+              <c:f>'Leaky Relu - Activation'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8730,7 +8781,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Leaky Relu - Activation'!$B$21:$I$21</c:f>
+              <c:f>'Leaky Relu - Activation'!$B$25:$I$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8762,7 +8813,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Leaky Relu - Activation'!$B$24:$I$24</c:f>
+              <c:f>'Leaky Relu - Activation'!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8804,7 +8855,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Leaky Relu - Activation'!$A$25</c:f>
+              <c:f>'Leaky Relu - Activation'!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8882,7 +8933,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Leaky Relu - Activation'!$B$21:$I$21</c:f>
+              <c:f>'Leaky Relu - Activation'!$B$25:$I$25</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8914,7 +8965,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Leaky Relu - Activation'!$B$25:$I$25</c:f>
+              <c:f>'Leaky Relu - Activation'!$B$29:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -16478,7 +16529,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16514,7 +16565,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16546,13 +16597,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16584,13 +16635,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16622,13 +16673,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16660,13 +16711,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16704,7 +16755,7 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16742,7 +16793,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16969,77 +17020,121 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{239746C8-0BDB-D347-8777-0C3E390B2B7D}" name="Table1" displayName="Table1" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{239746C8-0BDB-D347-8777-0C3E390B2B7D}" name="Table1" displayName="Table1" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{59E7F4B4-BFBE-B34D-A7C1-2D1DEB3381A3}" name="Column1" headerRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{D8223E95-7B4E-864C-94D2-C9A74512F303}" name="Column2" headerRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{EF66F855-7D7A-6143-BD3B-5E295CA97A6D}" name="Column3" headerRowDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{59E7F4B4-BFBE-B34D-A7C1-2D1DEB3381A3}" name="Column1" headerRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{D8223E95-7B4E-864C-94D2-C9A74512F303}" name="Column2" headerRowDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{EF66F855-7D7A-6143-BD3B-5E295CA97A6D}" name="Column3" headerRowDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C2664C5A-CEBA-064B-81FF-B981AF4A422C}" name="Table1101415" displayName="Table1101415" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{39474758-4088-4943-A229-ACD2BD65C7E7}" name="Column1" headerRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{557C9285-65EC-2340-A204-278B776C62A0}" name="Column2" headerRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{33917CC1-C1CC-FD44-92AB-9BB767F456A6}" name="Column3" headerRowDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{FAD1395D-0940-E64C-B01D-714FD79A9BBA}" name="Table110141516" displayName="Table110141516" ref="E10:G15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4FD01FC8-7F94-C747-AC64-CDEB7E4B6E53}" name="Column1" headerRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A3E19881-5AAB-9446-BE92-22B4419BDB59}" name="Column2" headerRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A1D4FB8A-6E30-6548-A24F-6E418810B659}" name="Column3" headerRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD0BD35F-A9D7-2542-A200-C2A6E5B72D8C}" name="Table13" displayName="Table13" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD0BD35F-A9D7-2542-A200-C2A6E5B72D8C}" name="Table13" displayName="Table13" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="39">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0BAE49FD-6851-FC4B-B6C6-64EEE297C467}" name="Column1" headerRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{BB527329-0524-5D47-8AD6-42FEC396C9FA}" name="Column2" headerRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{C6F400D7-3CEF-264D-8391-BE57599925D7}" name="Column3" headerRowDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{0BAE49FD-6851-FC4B-B6C6-64EEE297C467}" name="Column1" headerRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{BB527329-0524-5D47-8AD6-42FEC396C9FA}" name="Column2" headerRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{C6F400D7-3CEF-264D-8391-BE57599925D7}" name="Column3" headerRowDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{063B7F63-A9C3-B242-882F-6DD99CF34AA2}" name="Table14" displayName="Table14" ref="A11:C15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{063B7F63-A9C3-B242-882F-6DD99CF34AA2}" name="Table14" displayName="Table14" ref="A11:C15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0D6EECAD-80EB-E547-982A-BA4DD06727ED}" name="Column1" headerRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{9CB8BBBC-9FE1-6E41-93EE-BBC72296F1D3}" name="Column2" headerRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{F855E427-C9C7-9E4E-966A-F98D6B898F37}" name="Column3" headerRowDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{0D6EECAD-80EB-E547-982A-BA4DD06727ED}" name="Column1" headerRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{9CB8BBBC-9FE1-6E41-93EE-BBC72296F1D3}" name="Column2" headerRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{F855E427-C9C7-9E4E-966A-F98D6B898F37}" name="Column3" headerRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{519ACA3E-687C-6F4E-8185-4A454BD75BFE}" name="Table135" displayName="Table135" ref="E11:G15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{519ACA3E-687C-6F4E-8185-4A454BD75BFE}" name="Table135" displayName="Table135" ref="E11:G15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="31">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F62741C3-4CA2-0940-8B89-9E9B6BB6DA90}" name="Column1" headerRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{5396D95A-896E-F046-8CF4-0A2DB176CEC9}" name="Column2" headerRowDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B035CCFE-AF59-8648-AB59-C65421243FE1}" name="Column3" headerRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{F62741C3-4CA2-0940-8B89-9E9B6BB6DA90}" name="Column1" headerRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{5396D95A-896E-F046-8CF4-0A2DB176CEC9}" name="Column2" headerRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{B035CCFE-AF59-8648-AB59-C65421243FE1}" name="Column3" headerRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F04401D-2130-DA40-9F57-CDC0C36F17E9}" name="Table110" displayName="Table110" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B22BEFC8-6ABE-F849-923C-07A3F7E869E4}" name="Table11014151618" displayName="Table11014151618" ref="A18:C23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1945E186-4F31-004F-8021-FE865B6DDF26}" name="Column1" headerRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{BE8835CC-D9F0-A641-BF27-53D7984810E3}" name="Column2" headerRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F519CD9B-1522-904A-B7F8-AD525BB82815}" name="Column3" headerRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{FF300496-78E8-A542-B912-836A1BE1A243}" name="Column1" headerRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0E7FCA12-D282-5C4A-BE4A-592EB339BF18}" name="Column2" headerRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CA5786CC-24E0-7944-96F7-DB32B3D17B68}" name="Column3" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{902C6CDF-5CD6-334E-BB21-E5C5BE02CD28}" name="Table11014" displayName="Table11014" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F04401D-2130-DA40-9F57-CDC0C36F17E9}" name="Table110" displayName="Table110" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8BA0A124-B8D0-664C-BE78-B0E0067F21D0}" name="Column1" headerRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{EE5EFE34-A1C3-BF44-B3C6-179D47206E39}" name="Column2" headerRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{64FE5CE7-53EA-3848-B6A0-3982B6748541}" name="Column3" headerRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1945E186-4F31-004F-8021-FE865B6DDF26}" name="Column1" headerRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{BE8835CC-D9F0-A641-BF27-53D7984810E3}" name="Column2" headerRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{F519CD9B-1522-904A-B7F8-AD525BB82815}" name="Column3" headerRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79CEE0E9-5733-9B43-8D40-DB36A1139397}" name="Table16" displayName="Table16" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{902C6CDF-5CD6-334E-BB21-E5C5BE02CD28}" name="Table11014" displayName="Table11014" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="19">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F86073DA-3CA2-864A-89B9-8FCE0B352E61}" name="Column1" headerRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{8AFC8EFA-8FCB-DF44-98F9-7ACD93E287FE}" name="Column2" headerRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{05B78178-AD6C-3E4E-A047-12C66DE69BFB}" name="Column3" headerRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8BA0A124-B8D0-664C-BE78-B0E0067F21D0}" name="Column1" headerRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{EE5EFE34-A1C3-BF44-B3C6-179D47206E39}" name="Column2" headerRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{64FE5CE7-53EA-3848-B6A0-3982B6748541}" name="Column3" headerRowDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{252E2C9F-54A7-FF4D-AC27-E94FC91B01E4}" name="Table11014151617" displayName="Table11014151617" ref="E12:G17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{42564005-4548-BC47-845F-26A59A45683A}" name="Column1" headerRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{DFF66778-5C05-C448-86EF-966A86ADDF17}" name="Column2" headerRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F3F5770A-1A07-F54B-B2BB-EE4D666CB46B}" name="Column3" headerRowDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79CEE0E9-5733-9B43-8D40-DB36A1139397}" name="Table16" displayName="Table16" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F86073DA-3CA2-864A-89B9-8FCE0B352E61}" name="Column1" headerRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{8AFC8EFA-8FCB-DF44-98F9-7ACD93E287FE}" name="Column2" headerRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{05B78178-AD6C-3E4E-A047-12C66DE69BFB}" name="Column3" headerRowDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17342,10 +17437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66D896D-095A-5F4A-8DE9-2EA97D36B8E7}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17611,140 +17706,195 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+    <row r="18" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H25" t="s">
         <v>18</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B26" s="13">
         <v>97.682900000000004</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C26" s="8">
         <v>99.976200000000006</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D26" s="13">
         <v>97.396450000000002</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E26" s="8">
         <v>99.982429999999994</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="9"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B27" s="12">
         <v>98.036095000000003</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C27" s="9">
         <v>99.994575999999995</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D27" s="12">
         <v>96.92098</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E27" s="9">
         <v>99.984534999999994</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F27" s="13">
         <v>97.450159999999997</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G27" s="8">
         <v>99.993160000000003</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H27" s="3">
         <v>97.153930000000003</v>
       </c>
-      <c r="I23">
+      <c r="I27">
         <v>99.996269999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="28" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B28" s="13">
         <v>97.11609</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C28" s="8">
         <v>99.714489999999998</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D28" s="13">
         <v>97.309364000000002</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E28" s="8">
         <v>99.862129999999993</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F28" s="12">
         <v>97.124840000000006</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G28" s="9">
         <v>99.989279999999994</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H28" s="3">
         <v>97.791340000000005</v>
       </c>
-      <c r="I24">
+      <c r="I28">
         <v>99.984939999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B29" s="12">
         <v>97.199100000000001</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C29" s="9">
         <v>99.845579999999998</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D29" s="12">
         <v>97.240600000000001</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E29" s="9">
         <v>99.899289999999993</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F29" s="13">
         <v>97.600300000000004</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G29" s="8">
         <v>99.55274</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H29" s="3">
         <v>97.956140000000005</v>
       </c>
-      <c r="I25">
+      <c r="I29">
         <v>99.984534999999994</v>
       </c>
     </row>
@@ -17752,11 +17902,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17765,8 +17916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22653CF-A9D0-8846-8C78-20B3E7C5657D}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17895,27 +18046,42 @@
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="2"/>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -17923,19 +18089,28 @@
     <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="16"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="2:11" ht="19" x14ac:dyDescent="0.25">
@@ -17954,9 +18129,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17966,7 +18142,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17975,13 +18151,18 @@
       <c r="A1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -17992,6 +18173,15 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="3"/>
@@ -18007,7 +18197,9 @@
       <c r="C4">
         <v>99.678690000000003</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="5"/>
@@ -18022,8 +18214,11 @@
       <c r="C5" s="16">
         <v>97.279526000000004</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="16"/>
       <c r="J5" s="3"/>
       <c r="K5" s="5"/>
     </row>
@@ -18037,7 +18232,9 @@
       <c r="C6">
         <v>93.94247</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="5"/>
@@ -18052,7 +18249,9 @@
       <c r="C7">
         <v>96.275700000000001</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
@@ -18062,30 +18261,52 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="16"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
@@ -18093,7 +18314,9 @@
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -18102,7 +18325,9 @@
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -18110,8 +18335,6 @@
     <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
@@ -18133,8 +18356,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DeepLearningPolycubing/Results/Results - Unet.xlsx
+++ b/DeepLearningPolycubing/Results/Results - Unet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcleres/DeepShape/DeepLearningPolycubing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CD94D-BFE7-3045-B6BA-5B2A8ADE4388}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39495377-5C3E-0047-9BF2-2C60C8AE4A17}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37520" yWindow="-920" windowWidth="28040" windowHeight="17060" xr2:uid="{EBA3C40F-43B5-8A44-86E5-05149CB0A759}"/>
+    <workbookView xWindow="37520" yWindow="-920" windowWidth="28040" windowHeight="17060" activeTab="2" xr2:uid="{EBA3C40F-43B5-8A44-86E5-05149CB0A759}"/>
   </bookViews>
   <sheets>
     <sheet name="Leaky Relu - Activation" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sigmoid Activation" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="23">
   <si>
     <t>Validation</t>
   </si>
@@ -92,12 +93,18 @@
   <si>
     <t>Log-Softmax</t>
   </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Sigmoid - Adamax - 40 epochs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +131,12 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -195,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,11 +228,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="48">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2351,6 +2377,606 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sigmoid - Adamax - 40 epochs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ReLu - Activation'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ReLu - Activation'!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ReLu - Activation'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.577931722005204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.059794108072893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.142296000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.892232259114493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.747548421223897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B966-9140-82EB-1A11A2633711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ReLu - Activation'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ReLu - Activation'!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ReLu - Activation'!$C$14:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.5289849175347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.543949833622605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.980599999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.1046006944444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.036938702618599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B966-9140-82EB-1A11A2633711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1088069408"/>
+        <c:axId val="626890624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1088069408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>BAtch</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626890624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="626890624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy (in %) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088069408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2915,7 +3541,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9374,6 +10000,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11267,7 +11933,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11291,17 +11957,16 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -11332,37 +11997,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -11380,7 +12034,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
@@ -11395,7 +12051,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
@@ -11409,9 +12067,11 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -11430,17 +12090,18 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -11498,6 +12159,529 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11790,7 +12974,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16935,6 +18119,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B9B0BD-2178-654B-BAC4-293B7C2969B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17020,121 +18240,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{239746C8-0BDB-D347-8777-0C3E390B2B7D}" name="Table1" displayName="Table1" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{239746C8-0BDB-D347-8777-0C3E390B2B7D}" name="Table1" displayName="Table1" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="47">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{59E7F4B4-BFBE-B34D-A7C1-2D1DEB3381A3}" name="Column1" headerRowDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{D8223E95-7B4E-864C-94D2-C9A74512F303}" name="Column2" headerRowDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{EF66F855-7D7A-6143-BD3B-5E295CA97A6D}" name="Column3" headerRowDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{59E7F4B4-BFBE-B34D-A7C1-2D1DEB3381A3}" name="Column1" headerRowDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{D8223E95-7B4E-864C-94D2-C9A74512F303}" name="Column2" headerRowDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{EF66F855-7D7A-6143-BD3B-5E295CA97A6D}" name="Column3" headerRowDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C2664C5A-CEBA-064B-81FF-B981AF4A422C}" name="Table1101415" displayName="Table1101415" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79CEE0E9-5733-9B43-8D40-DB36A1139397}" name="Table16" displayName="Table16" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{39474758-4088-4943-A229-ACD2BD65C7E7}" name="Column1" headerRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{557C9285-65EC-2340-A204-278B776C62A0}" name="Column2" headerRowDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{33917CC1-C1CC-FD44-92AB-9BB767F456A6}" name="Column3" headerRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{F86073DA-3CA2-864A-89B9-8FCE0B352E61}" name="Column1" headerRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8AFC8EFA-8FCB-DF44-98F9-7ACD93E287FE}" name="Column2" headerRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{05B78178-AD6C-3E4E-A047-12C66DE69BFB}" name="Column3" headerRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{FAD1395D-0940-E64C-B01D-714FD79A9BBA}" name="Table110141516" displayName="Table110141516" ref="E10:G15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C2664C5A-CEBA-064B-81FF-B981AF4A422C}" name="Table1101415" displayName="Table1101415" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4FD01FC8-7F94-C747-AC64-CDEB7E4B6E53}" name="Column1" headerRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A3E19881-5AAB-9446-BE92-22B4419BDB59}" name="Column2" headerRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A1D4FB8A-6E30-6548-A24F-6E418810B659}" name="Column3" headerRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{39474758-4088-4943-A229-ACD2BD65C7E7}" name="Column1" headerRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{557C9285-65EC-2340-A204-278B776C62A0}" name="Column2" headerRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{33917CC1-C1CC-FD44-92AB-9BB767F456A6}" name="Column3" headerRowDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{FAD1395D-0940-E64C-B01D-714FD79A9BBA}" name="Table110141516" displayName="Table110141516" ref="E10:G15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4FD01FC8-7F94-C747-AC64-CDEB7E4B6E53}" name="Column1" headerRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A3E19881-5AAB-9446-BE92-22B4419BDB59}" name="Column2" headerRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A1D4FB8A-6E30-6548-A24F-6E418810B659}" name="Column3" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD0BD35F-A9D7-2542-A200-C2A6E5B72D8C}" name="Table13" displayName="Table13" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD0BD35F-A9D7-2542-A200-C2A6E5B72D8C}" name="Table13" displayName="Table13" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0BAE49FD-6851-FC4B-B6C6-64EEE297C467}" name="Column1" headerRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{BB527329-0524-5D47-8AD6-42FEC396C9FA}" name="Column2" headerRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{C6F400D7-3CEF-264D-8391-BE57599925D7}" name="Column3" headerRowDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{0BAE49FD-6851-FC4B-B6C6-64EEE297C467}" name="Column1" headerRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{BB527329-0524-5D47-8AD6-42FEC396C9FA}" name="Column2" headerRowDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{C6F400D7-3CEF-264D-8391-BE57599925D7}" name="Column3" headerRowDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{063B7F63-A9C3-B242-882F-6DD99CF34AA2}" name="Table14" displayName="Table14" ref="A11:C15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{063B7F63-A9C3-B242-882F-6DD99CF34AA2}" name="Table14" displayName="Table14" ref="A11:C15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="39">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0D6EECAD-80EB-E547-982A-BA4DD06727ED}" name="Column1" headerRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{9CB8BBBC-9FE1-6E41-93EE-BBC72296F1D3}" name="Column2" headerRowDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{F855E427-C9C7-9E4E-966A-F98D6B898F37}" name="Column3" headerRowDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{0D6EECAD-80EB-E547-982A-BA4DD06727ED}" name="Column1" headerRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{9CB8BBBC-9FE1-6E41-93EE-BBC72296F1D3}" name="Column2" headerRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{F855E427-C9C7-9E4E-966A-F98D6B898F37}" name="Column3" headerRowDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{519ACA3E-687C-6F4E-8185-4A454BD75BFE}" name="Table135" displayName="Table135" ref="E11:G15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{519ACA3E-687C-6F4E-8185-4A454BD75BFE}" name="Table135" displayName="Table135" ref="E11:G15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F62741C3-4CA2-0940-8B89-9E9B6BB6DA90}" name="Column1" headerRowDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{5396D95A-896E-F046-8CF4-0A2DB176CEC9}" name="Column2" headerRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{B035CCFE-AF59-8648-AB59-C65421243FE1}" name="Column3" headerRowDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{F62741C3-4CA2-0940-8B89-9E9B6BB6DA90}" name="Column1" headerRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{5396D95A-896E-F046-8CF4-0A2DB176CEC9}" name="Column2" headerRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{B035CCFE-AF59-8648-AB59-C65421243FE1}" name="Column3" headerRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B22BEFC8-6ABE-F849-923C-07A3F7E869E4}" name="Table11014151618" displayName="Table11014151618" ref="A18:C23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B22BEFC8-6ABE-F849-923C-07A3F7E869E4}" name="Table11014151618" displayName="Table11014151618" ref="A18:C23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="31">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FF300496-78E8-A542-B912-836A1BE1A243}" name="Column1" headerRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0E7FCA12-D282-5C4A-BE4A-592EB339BF18}" name="Column2" headerRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CA5786CC-24E0-7944-96F7-DB32B3D17B68}" name="Column3" headerRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FF300496-78E8-A542-B912-836A1BE1A243}" name="Column1" headerRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{0E7FCA12-D282-5C4A-BE4A-592EB339BF18}" name="Column2" headerRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{CA5786CC-24E0-7944-96F7-DB32B3D17B68}" name="Column3" headerRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F04401D-2130-DA40-9F57-CDC0C36F17E9}" name="Table110" displayName="Table110" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F04401D-2130-DA40-9F57-CDC0C36F17E9}" name="Table110" displayName="Table110" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1945E186-4F31-004F-8021-FE865B6DDF26}" name="Column1" headerRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{BE8835CC-D9F0-A641-BF27-53D7984810E3}" name="Column2" headerRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{F519CD9B-1522-904A-B7F8-AD525BB82815}" name="Column3" headerRowDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{1945E186-4F31-004F-8021-FE865B6DDF26}" name="Column1" headerRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{BE8835CC-D9F0-A641-BF27-53D7984810E3}" name="Column2" headerRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{F519CD9B-1522-904A-B7F8-AD525BB82815}" name="Column3" headerRowDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{902C6CDF-5CD6-334E-BB21-E5C5BE02CD28}" name="Table11014" displayName="Table11014" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{902C6CDF-5CD6-334E-BB21-E5C5BE02CD28}" name="Table11014" displayName="Table11014" ref="E2:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8BA0A124-B8D0-664C-BE78-B0E0067F21D0}" name="Column1" headerRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{EE5EFE34-A1C3-BF44-B3C6-179D47206E39}" name="Column2" headerRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{64FE5CE7-53EA-3848-B6A0-3982B6748541}" name="Column3" headerRowDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{8BA0A124-B8D0-664C-BE78-B0E0067F21D0}" name="Column1" headerRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{EE5EFE34-A1C3-BF44-B3C6-179D47206E39}" name="Column2" headerRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{64FE5CE7-53EA-3848-B6A0-3982B6748541}" name="Column3" headerRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{252E2C9F-54A7-FF4D-AC27-E94FC91B01E4}" name="Table11014151617" displayName="Table11014151617" ref="E12:G17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{252E2C9F-54A7-FF4D-AC27-E94FC91B01E4}" name="Table11014151617" displayName="Table11014151617" ref="E12:G17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="19">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{42564005-4548-BC47-845F-26A59A45683A}" name="Column1" headerRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{DFF66778-5C05-C448-86EF-966A86ADDF17}" name="Column2" headerRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F3F5770A-1A07-F54B-B2BB-EE4D666CB46B}" name="Column3" headerRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{42564005-4548-BC47-845F-26A59A45683A}" name="Column1" headerRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{DFF66778-5C05-C448-86EF-966A86ADDF17}" name="Column2" headerRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F3F5770A-1A07-F54B-B2BB-EE4D666CB46B}" name="Column3" headerRowDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79CEE0E9-5733-9B43-8D40-DB36A1139397}" name="Table16" displayName="Table16" ref="A2:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{C2B1ED45-1F4A-EF4F-B232-85ABE56DB768}" name="Table1101415161719" displayName="Table1101415161719" ref="A12:C18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F86073DA-3CA2-864A-89B9-8FCE0B352E61}" name="Column1" headerRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{8AFC8EFA-8FCB-DF44-98F9-7ACD93E287FE}" name="Column2" headerRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{05B78178-AD6C-3E4E-A047-12C66DE69BFB}" name="Column3" headerRowDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{5EE031F3-8380-AA4D-8966-E70D2162A569}" name="Column1" headerRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{D3B87037-B615-1540-A991-951C67CF3B17}" name="Column2" headerRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{CBBC224F-924F-5C4E-9B08-F9C6DCE3C34E}" name="Column3" headerRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17439,7 +18670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66D896D-095A-5F4A-8DE9-2EA97D36B8E7}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -17914,10 +19145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22653CF-A9D0-8846-8C78-20B3E7C5657D}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18044,8 +19275,9 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
@@ -18053,7 +19285,10 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
@@ -18062,8 +19297,15 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
@@ -18077,8 +19319,16 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>98.577931722005204</v>
+      </c>
+      <c r="C14" s="3">
+        <v>98.5289849175347</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
@@ -18087,8 +19337,15 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>98.059794108072893</v>
+      </c>
+      <c r="C15" s="17">
+        <v>98.543949833622605</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
@@ -18098,7 +19355,16 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>98.142296000000002</v>
+      </c>
+      <c r="C16" s="7">
+        <v>99.980599999999995</v>
+      </c>
+      <c r="D16" s="17"/>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
@@ -18106,33 +19372,67 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>95.892232259114493</v>
+      </c>
+      <c r="C17" s="3">
+        <v>96.1046006944444</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
+    <row r="18" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>97.747548421223897</v>
+      </c>
+      <c r="C18" s="3">
+        <v>99.036938702618599</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="17"/>
     </row>
-    <row r="21" spans="2:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
